--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3801.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3801.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.881987032747892</v>
+        <v>1.703768610954285</v>
       </c>
       <c r="B1">
-        <v>2.061988665362943</v>
+        <v>5.387849807739258</v>
       </c>
       <c r="C1">
-        <v>2.39926425844137</v>
+        <v>6.046513080596924</v>
       </c>
       <c r="D1">
-        <v>4.003300684120002</v>
+        <v>2.574524641036987</v>
       </c>
       <c r="E1">
-        <v>1.668219960166644</v>
+        <v>1.739579677581787</v>
       </c>
     </row>
   </sheetData>
